--- a/data/trans_camb/P12B1_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,21</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,59</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 25,04</t>
+          <t>-2,08; 1,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 14,87</t>
+          <t>-2,12; 1,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 34,21</t>
+          <t>0,38; 4,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 7,39</t>
+          <t>-2,86; 2,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 8,59</t>
+          <t>-2,28; 3,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 17,48</t>
+          <t>-1,84; 0,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 9,73</t>
+          <t>-2,09; 0,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 6,01</t>
+          <t>-0,65; 2,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 21,74</t>
+          <t>-0,58; 3,64</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 4,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 0,76</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 0,47</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 3,34</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 2,54</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 2,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>-15,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,77%</t>
+          <t>-16,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,07%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,03%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-24,77%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>-17,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,93%</t>
+          <t>-26,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,9%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>47,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>69,2%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-16,3%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-21,42%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>71,27%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20,48%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>28,31%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,67; 132,28</t>
+          <t>-60,73; 96,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,14; 77,55</t>
+          <t>-57,76; 63,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 205,58</t>
+          <t>4,24; 280,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 46,28</t>
+          <t>-43,51; 76,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,3; 48,27</t>
+          <t>-37,83; 77,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 98,97</t>
+          <t>-59,5; 64,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,84; 44,8</t>
+          <t>-65,01; 51,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,42; 28,14</t>
+          <t>-23,93; 181,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 109,39</t>
+          <t>-13,95; 146,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 182,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-49,69; 45,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-52,07; 25,41</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12,17; 179,66</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-20,07; 78,48</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-12,13; 85,29</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,83</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,46</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,33</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,39</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 40,87</t>
+          <t>-1,52; 2,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 38,04</t>
+          <t>-1,19; 2,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 40,93</t>
+          <t>-1,49; 2,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 19,81</t>
+          <t>-0,86; 6,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 26,21</t>
+          <t>-2,4; 5,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 26,61</t>
+          <t>-1,62; 1,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 24,32</t>
+          <t>-0,18; 3,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 25,93</t>
+          <t>-1,36; 2,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 24,89</t>
+          <t>-2,76; 2,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 1,45</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 1,6</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 2,59</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 2,04</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 3,45</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 2,72</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>58,17%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>68,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,93%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>-20,37%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-40,01%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16,7%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>54,55%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>20,9%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>35,03%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 278,53</t>
+          <t>-47,64; 179,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 229,12</t>
+          <t>-38,87; 208,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,37; 216,33</t>
+          <t>-51,34; 216,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,46; 143,39</t>
+          <t>-35,22; 428,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 215,0</t>
+          <t>-57,51; 330,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 181,82</t>
+          <t>-50,64; 134,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 147,41</t>
+          <t>-7,91; 268,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 154,42</t>
+          <t>-48,27; 156,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 129,47</t>
+          <t>-81,09; 153,47</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-86,61; 112,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-30,29; 97,27</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 158,68</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-35,54; 137,44</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-30,62; 177,53</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-51,63; 119,55</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>12,58</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,24</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-29,13; 19,59</t>
+          <t>-2,55; 3,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 13,63</t>
+          <t>-4,33; 0,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-0,58; 9,17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 33,42</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 38,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>0,47; 4,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 5,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 7,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,51; 19,57</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-7,57; 21,73</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 2,58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 2,71</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 7,04</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-13,98%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-54,24%</t>
+          <t>-67,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>202,93%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>92,31%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>130,78%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>115,47%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>119,15%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>443,38%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1258,10 +1636,40 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,78; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-70,32; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-64,96; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,59</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 18,82</t>
+          <t>-1,21; 1,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 18,33</t>
+          <t>-1,23; 1,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 30,95</t>
+          <t>0,21; 3,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 8,86</t>
+          <t>-1,02; 3,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 13,34</t>
+          <t>-1,6; 2,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 19,18</t>
+          <t>-1,07; 0,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 10,48</t>
+          <t>-0,53; 1,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 11,36</t>
+          <t>-0,06; 2,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 21,77</t>
+          <t>-0,34; 2,89</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 2,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 0,86</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 1,07</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 2,47</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 2,33</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 2,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>56,75%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>38,66%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>41,44%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15,09%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>66,49%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>31,01%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>23,56%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 100,04</t>
+          <t>-40,34; 80,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 90,88</t>
+          <t>-41,38; 78,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,61; 162,15</t>
+          <t>1,8; 190,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 59,84</t>
+          <t>-22,2; 92,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 84,14</t>
+          <t>-29,37; 83,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 132,8</t>
+          <t>-40,91; 61,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 53,9</t>
+          <t>-19,95; 103,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 60,17</t>
+          <t>-3,96; 148,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,2; 114,44</t>
+          <t>-9,67; 115,42</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-12,3; 133,55</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-28,91; 46,89</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-19,19; 61,93</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>22,4; 139,79</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 74,64</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-9,27; 72,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
